--- a/reports/rpt_d_持仓_001_20200306.xlsx
+++ b/reports/rpt_d_持仓_001_20200306.xlsx
@@ -71,12 +71,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10日吸资比 / 250日吸资比 -1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10日吸资比变化率 * 100</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>代码</t>
   </si>
@@ -97,6 +123,12 @@
   </si>
   <si>
     <t>聚2%天比</t>
+  </si>
+  <si>
+    <t>吸资归离</t>
+  </si>
+  <si>
+    <t>吸资10QS</t>
   </si>
   <si>
     <t>000001.SH</t>
@@ -496,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,181 +559,235 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3">
-        <v>3.45318212422856</v>
+        <v>1.929305811813387</v>
       </c>
       <c r="F2" s="3">
-        <v>3.466967205178806</v>
+        <v>2.669919973599777</v>
       </c>
       <c r="G2" s="3">
-        <v>1.04413951636273</v>
+        <v>0.8724461460771772</v>
       </c>
       <c r="H2" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.85</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-0.08282888603119376</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.3686235933596738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
-        <v>3.887033914953131</v>
+        <v>2.305938172113642</v>
       </c>
       <c r="F3" s="3">
-        <v>4.947683142511039</v>
+        <v>4.307855802884175</v>
       </c>
       <c r="G3" s="3">
-        <v>3.208007938216406</v>
+        <v>2.950405287810653</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="3">
+        <v>0.0595098095739357</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-0.2279010860164687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3">
-        <v>2.683014610425416</v>
+        <v>1.3841853588207</v>
       </c>
       <c r="F4" s="3">
-        <v>4.238378334983306</v>
+        <v>3.830384365647088</v>
       </c>
       <c r="G4" s="3">
-        <v>3.640865893887124</v>
+        <v>3.441478551572619</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="3">
+        <v>0.09623945380251175</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.3375487815054257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3">
-        <v>3.098800734737739</v>
+        <v>1.900700937402244</v>
       </c>
       <c r="F5" s="3">
-        <v>4.625205251015396</v>
+        <v>4.132577920961332</v>
       </c>
       <c r="G5" s="3">
-        <v>4.616586234424958</v>
+        <v>4.4659386332635</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="3">
+        <v>0.0854459466452373</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-1.851309214369146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3">
-        <v>14.15639929595172</v>
+        <v>14.69850285367666</v>
       </c>
       <c r="F6" s="3">
-        <v>11.93067767380063</v>
+        <v>13.29868968792813</v>
       </c>
       <c r="G6" s="3">
-        <v>6.361439887451414</v>
+        <v>6.807476067467011</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="3">
+        <v>0.874784867869826</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8.272237968436102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3">
-        <v>4.811291596552092</v>
+        <v>1.533941443749809</v>
       </c>
       <c r="F7" s="3">
-        <v>6.567803933768879</v>
+        <v>5.219959476630232</v>
       </c>
       <c r="G7" s="3">
-        <v>1.939919877865348</v>
+        <v>1.626835918704161</v>
       </c>
       <c r="H7" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="3">
+        <v>-0.07774600163617795</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-1.494988652368623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3">
-        <v>7.027975436202372</v>
+        <v>2.743045458951254</v>
       </c>
       <c r="F8" s="3">
-        <v>8.156446540880102</v>
+        <v>5.653572472950508</v>
       </c>
       <c r="G8" s="3">
-        <v>3.789021895852285</v>
+        <v>3.17343666488501</v>
       </c>
       <c r="H8" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="3">
+        <v>0.01969815813736719</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-2.703626085256849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3">
-        <v>4.41180941956274</v>
+        <v>2.021810316339745</v>
       </c>
       <c r="F9" s="3">
-        <v>15.09259259259288</v>
+        <v>12.10131046854546</v>
       </c>
       <c r="G9" s="3">
-        <v>6.354824915664858</v>
+        <v>6.078632720748933</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-0.1065906641827051</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-11.86420007624068</v>
       </c>
     </row>
   </sheetData>

--- a/reports/rpt_d_持仓_001_20200306.xlsx
+++ b/reports/rpt_d_持仓_001_20200306.xlsx
@@ -113,13 +113,13 @@
     <t>备注</t>
   </si>
   <si>
-    <t>20日归 %</t>
-  </si>
-  <si>
-    <t>MAQS20 ‰</t>
-  </si>
-  <si>
-    <t>MAQS60 ‰</t>
+    <t>20日归%</t>
+  </si>
+  <si>
+    <t>MAQS20‰</t>
+  </si>
+  <si>
+    <t>MAQS60‰</t>
   </si>
   <si>
     <t>聚2%天比</t>
